--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1383260169600979</v>
+        <v>0.4532102921767785</v>
       </c>
       <c r="C2">
-        <v>0.6934498634111277</v>
+        <v>0.9560173308380451</v>
       </c>
       <c r="D2">
-        <v>0.8896659821645211</v>
+        <v>2.911849634940581</v>
       </c>
       <c r="E2">
-        <v>0.9432210674940001</v>
+        <v>1.706414262405404</v>
       </c>
       <c r="F2">
-        <v>0.9682437126749991</v>
+        <v>1.707231247553019</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09194130459516001</v>
+        <v>0.5397191998186066</v>
       </c>
       <c r="C3">
-        <v>0.7033392162666456</v>
+        <v>1.131880666064611</v>
       </c>
       <c r="D3">
-        <v>0.9146758512640234</v>
+        <v>3.375819745879244</v>
       </c>
       <c r="E3">
-        <v>0.9563868732181676</v>
+        <v>1.837340400110781</v>
       </c>
       <c r="F3">
-        <v>0.9908285430660932</v>
+        <v>1.851282717837196</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1752364128597795</v>
+        <v>0.01424612316995905</v>
       </c>
       <c r="C4">
-        <v>0.5992600427714608</v>
+        <v>0.3434453827890073</v>
       </c>
       <c r="D4">
-        <v>0.7764951333494653</v>
+        <v>0.1563237768149852</v>
       </c>
       <c r="E4">
-        <v>0.8811896125973486</v>
+        <v>0.395378017617299</v>
       </c>
       <c r="F4">
-        <v>0.9019901226777289</v>
+        <v>0.432833674461142</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1081793390338524</v>
+        <v>0.1208118526715265</v>
       </c>
       <c r="C5">
-        <v>0.5592202944054537</v>
+        <v>0.1596663445948482</v>
       </c>
       <c r="D5">
-        <v>0.7352298605156079</v>
+        <v>0.04008884534220743</v>
       </c>
       <c r="E5">
-        <v>0.8574554568696895</v>
+        <v>0.2002219901564447</v>
       </c>
       <c r="F5">
-        <v>0.8921209560558407</v>
+        <v>0.2258023099805705</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-0.01724972141408772</v>
-      </c>
-      <c r="C6">
-        <v>0.4767865798269596</v>
-      </c>
-      <c r="D6">
-        <v>0.6645728464666546</v>
-      </c>
-      <c r="E6">
-        <v>0.8152133748084943</v>
-      </c>
-      <c r="F6">
-        <v>0.8591179543758115</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.1287855197999847</v>
-      </c>
-      <c r="C7">
-        <v>0.178674040584786</v>
-      </c>
-      <c r="D7">
-        <v>0.04605719699996589</v>
-      </c>
-      <c r="E7">
-        <v>0.2146094056651895</v>
-      </c>
-      <c r="F7">
-        <v>0.1854276176071117</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.1921016204791394</v>
-      </c>
-      <c r="C8">
-        <v>0.1921016204791394</v>
-      </c>
-      <c r="D8">
-        <v>0.04870912762672772</v>
-      </c>
-      <c r="E8">
-        <v>0.2207014445506139</v>
-      </c>
-      <c r="F8">
-        <v>0.1254649753836579</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.2897102124182701</v>
-      </c>
-      <c r="C9">
-        <v>0.2897102124182701</v>
-      </c>
-      <c r="D9">
-        <v>0.08393200717943919</v>
-      </c>
-      <c r="E9">
-        <v>0.2897102124182701</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4532102921767785</v>
+        <v>0.2249443616207714</v>
       </c>
       <c r="C2">
-        <v>0.9560173308380451</v>
+        <v>0.6609492819494724</v>
       </c>
       <c r="D2">
-        <v>2.911849634940581</v>
+        <v>0.739933022762375</v>
       </c>
       <c r="E2">
-        <v>1.706414262405404</v>
+        <v>0.8601935960947251</v>
       </c>
       <c r="F2">
-        <v>1.707231247553019</v>
+        <v>0.8616023889833488</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5397191998186066</v>
+        <v>0.0646333293875067</v>
       </c>
       <c r="C3">
-        <v>1.131880666064611</v>
+        <v>0.6340343087035507</v>
       </c>
       <c r="D3">
-        <v>3.375819745879244</v>
+        <v>0.9392448356363884</v>
       </c>
       <c r="E3">
-        <v>1.837340400110781</v>
+        <v>0.9691464469502988</v>
       </c>
       <c r="F3">
-        <v>1.851282717837196</v>
+        <v>1.019295709120695</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01424612316995905</v>
+        <v>0.47451964639446</v>
       </c>
       <c r="C4">
-        <v>0.3434453827890073</v>
+        <v>0.47451964639446</v>
       </c>
       <c r="D4">
-        <v>0.1563237768149852</v>
+        <v>0.4501379313770976</v>
       </c>
       <c r="E4">
-        <v>0.395378017617299</v>
+        <v>0.6709231933515919</v>
       </c>
       <c r="F4">
-        <v>0.432833674461142</v>
+        <v>0.5195794875428871</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1208118526715265</v>
+        <v>0.2995951651330526</v>
       </c>
       <c r="C5">
-        <v>0.1596663445948482</v>
+        <v>0.2995951651330526</v>
       </c>
       <c r="D5">
-        <v>0.04008884534220743</v>
+        <v>0.08977393156539534</v>
       </c>
       <c r="E5">
-        <v>0.2002219901564447</v>
+        <v>0.299622982371839</v>
       </c>
       <c r="F5">
-        <v>0.2258023099805705</v>
+        <v>0.005773836557138828</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2249443616207714</v>
+        <v>0.03225293373050328</v>
       </c>
       <c r="C2">
-        <v>0.6609492819494724</v>
+        <v>0.5338256249320711</v>
       </c>
       <c r="D2">
-        <v>0.739933022762375</v>
+        <v>0.4808498706638201</v>
       </c>
       <c r="E2">
-        <v>0.8601935960947251</v>
+        <v>0.693433393098299</v>
       </c>
       <c r="F2">
-        <v>0.8616023889833488</v>
+        <v>0.7003371009062773</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0646333293875067</v>
+        <v>0.08597907914849331</v>
       </c>
       <c r="C3">
-        <v>0.6340343087035507</v>
+        <v>0.4451405877761389</v>
       </c>
       <c r="D3">
-        <v>0.9392448356363884</v>
+        <v>0.430229207529593</v>
       </c>
       <c r="E3">
-        <v>0.9691464469502988</v>
+        <v>0.655918598249503</v>
       </c>
       <c r="F3">
-        <v>1.019295709120695</v>
+        <v>0.6576068224065241</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.47451964639446</v>
+        <v>0.02586794070748817</v>
       </c>
       <c r="C4">
-        <v>0.47451964639446</v>
+        <v>0.4417395282174381</v>
       </c>
       <c r="D4">
-        <v>0.4501379313770976</v>
+        <v>0.4101439193432779</v>
       </c>
       <c r="E4">
-        <v>0.6709231933515919</v>
+        <v>0.6404247960090848</v>
       </c>
       <c r="F4">
-        <v>0.5195794875428871</v>
+        <v>0.6473001143465348</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2995951651330526</v>
+        <v>0.06673040005454207</v>
       </c>
       <c r="C5">
-        <v>0.2995951651330526</v>
+        <v>0.4545424064740749</v>
       </c>
       <c r="D5">
-        <v>0.08977393156539534</v>
+        <v>0.4219317955494934</v>
       </c>
       <c r="E5">
-        <v>0.299622982371839</v>
+        <v>0.649562772601304</v>
       </c>
       <c r="F5">
-        <v>0.005773836557138828</v>
+        <v>0.6537727601081559</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.07987673139996194</v>
+      </c>
+      <c r="C6">
+        <v>0.4232780668641379</v>
+      </c>
+      <c r="D6">
+        <v>0.4000004946887931</v>
+      </c>
+      <c r="E6">
+        <v>0.6324559231193847</v>
+      </c>
+      <c r="F6">
+        <v>0.6349966103947435</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.05222626992688523</v>
+      </c>
+      <c r="C7">
+        <v>0.4466751155204058</v>
+      </c>
+      <c r="D7">
+        <v>0.4144800636829005</v>
+      </c>
+      <c r="E7">
+        <v>0.6438012610137546</v>
+      </c>
+      <c r="F7">
+        <v>0.649650900424786</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.09078832835761171</v>
+      </c>
+      <c r="C8">
+        <v>0.4410619110573982</v>
+      </c>
+      <c r="D8">
+        <v>0.4058428363806655</v>
+      </c>
+      <c r="E8">
+        <v>0.6370579537064627</v>
+      </c>
+      <c r="F8">
+        <v>0.6385884400044998</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.06725486063599991</v>
+      </c>
+      <c r="C9">
+        <v>0.4607570938983374</v>
+      </c>
+      <c r="D9">
+        <v>0.4414258711817555</v>
+      </c>
+      <c r="E9">
+        <v>0.6643988795759334</v>
+      </c>
+      <c r="F9">
+        <v>0.6696268312944889</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.0892556709541302</v>
+      </c>
+      <c r="C10">
+        <v>0.4590231486236458</v>
+      </c>
+      <c r="D10">
+        <v>0.4345934021827165</v>
+      </c>
+      <c r="E10">
+        <v>0.6592369848413516</v>
+      </c>
+      <c r="F10">
+        <v>0.6619344999162985</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.04838106079093066</v>
+      </c>
+      <c r="C11">
+        <v>0.4610557988666878</v>
+      </c>
+      <c r="D11">
+        <v>0.4449887869852402</v>
+      </c>
+      <c r="E11">
+        <v>0.6670747986434806</v>
+      </c>
+      <c r="F11">
+        <v>0.6744952478593288</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03225293373050328</v>
+        <v>0.1918552174508198</v>
       </c>
       <c r="C2">
-        <v>0.5338256249320711</v>
+        <v>0.5517837712442845</v>
       </c>
       <c r="D2">
-        <v>0.4808498706638201</v>
+        <v>0.5641894466527427</v>
       </c>
       <c r="E2">
-        <v>0.693433393098299</v>
+        <v>0.7511254533383506</v>
       </c>
       <c r="F2">
-        <v>0.7003371009062773</v>
+        <v>0.7362272034013972</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.08597907914849331</v>
+        <v>0.01060547437218578</v>
       </c>
       <c r="C3">
-        <v>0.4451405877761389</v>
+        <v>0.4423892562697259</v>
       </c>
       <c r="D3">
-        <v>0.430229207529593</v>
+        <v>0.3511281738231621</v>
       </c>
       <c r="E3">
-        <v>0.655918598249503</v>
+        <v>0.5925606921009544</v>
       </c>
       <c r="F3">
-        <v>0.6576068224065241</v>
+        <v>0.600869967357191</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02586794070748817</v>
+        <v>0.1023758857763177</v>
       </c>
       <c r="C4">
-        <v>0.4417395282174381</v>
+        <v>0.4466085728510511</v>
       </c>
       <c r="D4">
-        <v>0.4101439193432779</v>
+        <v>0.3426007271002285</v>
       </c>
       <c r="E4">
-        <v>0.6404247960090848</v>
+        <v>0.5853210461791277</v>
       </c>
       <c r="F4">
-        <v>0.6473001143465348</v>
+        <v>0.5847120125455174</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06673040005454207</v>
+        <v>0.03600675553489324</v>
       </c>
       <c r="C5">
-        <v>0.4545424064740749</v>
+        <v>0.4382764901874337</v>
       </c>
       <c r="D5">
-        <v>0.4219317955494934</v>
+        <v>0.3537032576543248</v>
       </c>
       <c r="E5">
-        <v>0.649562772601304</v>
+        <v>0.5947295668237159</v>
       </c>
       <c r="F5">
-        <v>0.6537727601081559</v>
+        <v>0.602565983338879</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07987673139996194</v>
+        <v>0.07600721640812284</v>
       </c>
       <c r="C6">
-        <v>0.4232780668641379</v>
+        <v>0.4186182603205892</v>
       </c>
       <c r="D6">
-        <v>0.4000004946887931</v>
+        <v>0.3343428317836482</v>
       </c>
       <c r="E6">
-        <v>0.6324559231193847</v>
+        <v>0.5782238595765902</v>
       </c>
       <c r="F6">
-        <v>0.6349966103947435</v>
+        <v>0.5820939907362127</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05222626992688523</v>
+        <v>0.09996734948318312</v>
       </c>
       <c r="C7">
-        <v>0.4466751155204058</v>
+        <v>0.3946104424313834</v>
       </c>
       <c r="D7">
-        <v>0.4144800636829005</v>
+        <v>0.304156198780297</v>
       </c>
       <c r="E7">
-        <v>0.6438012610137546</v>
+        <v>0.5515035800249143</v>
       </c>
       <c r="F7">
-        <v>0.649650900424786</v>
+        <v>0.5510461396922992</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09078832835761171</v>
+        <v>0.058982071561956</v>
       </c>
       <c r="C8">
-        <v>0.4410619110573982</v>
+        <v>0.4225312785458647</v>
       </c>
       <c r="D8">
-        <v>0.4058428363806655</v>
+        <v>0.3413796702787015</v>
       </c>
       <c r="E8">
-        <v>0.6370579537064627</v>
+        <v>0.5842770492486433</v>
       </c>
       <c r="F8">
-        <v>0.6385884400044998</v>
+        <v>0.59090112965712</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06725486063599991</v>
+        <v>0.1107680203475256</v>
       </c>
       <c r="C9">
-        <v>0.4607570938983374</v>
+        <v>0.4177884961770141</v>
       </c>
       <c r="D9">
-        <v>0.4414258711817555</v>
+        <v>0.3290473224825335</v>
       </c>
       <c r="E9">
-        <v>0.6643988795759334</v>
+        <v>0.5736264659885678</v>
       </c>
       <c r="F9">
-        <v>0.6696268312944889</v>
+        <v>0.572451866506145</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0892556709541302</v>
+        <v>0.07549334707445945</v>
       </c>
       <c r="C10">
-        <v>0.4590231486236458</v>
+        <v>0.4371919483332072</v>
       </c>
       <c r="D10">
-        <v>0.4345934021827165</v>
+        <v>0.3654170218579554</v>
       </c>
       <c r="E10">
-        <v>0.6592369848413516</v>
+        <v>0.6044973299014277</v>
       </c>
       <c r="F10">
-        <v>0.6619344999162985</v>
+        <v>0.6103808973489443</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04838106079093066</v>
+        <v>0.1033470187209335</v>
       </c>
       <c r="C11">
-        <v>0.4610557988666878</v>
+        <v>0.4328287120564761</v>
       </c>
       <c r="D11">
-        <v>0.4449887869852402</v>
+        <v>0.3505829942180106</v>
       </c>
       <c r="E11">
-        <v>0.6670747986434806</v>
+        <v>0.5921004933438332</v>
       </c>
       <c r="F11">
-        <v>0.6744952478593288</v>
+        <v>0.5937098325534103</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1918552174508198</v>
+        <v>0.2796718369229467</v>
       </c>
       <c r="C2">
-        <v>0.5517837712442845</v>
+        <v>0.7060998478836559</v>
       </c>
       <c r="D2">
-        <v>0.5641894466527427</v>
+        <v>1.307254641040476</v>
       </c>
       <c r="E2">
-        <v>0.7511254533383506</v>
+        <v>1.143352369587118</v>
       </c>
       <c r="F2">
-        <v>0.7362272034013972</v>
+        <v>1.120870316762238</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01060547437218578</v>
+        <v>0.06641828055913036</v>
       </c>
       <c r="C3">
-        <v>0.4423892562697259</v>
+        <v>0.6381699131279182</v>
       </c>
       <c r="D3">
-        <v>0.3511281738231621</v>
+        <v>1.188041105879228</v>
       </c>
       <c r="E3">
-        <v>0.5925606921009544</v>
+        <v>1.08997298401347</v>
       </c>
       <c r="F3">
-        <v>0.600869967357191</v>
+        <v>1.100241061446679</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1023758857763177</v>
+        <v>0.2050740221088844</v>
       </c>
       <c r="C4">
-        <v>0.4466085728510511</v>
+        <v>0.6171955800063507</v>
       </c>
       <c r="D4">
-        <v>0.3426007271002285</v>
+        <v>1.178333655589288</v>
       </c>
       <c r="E4">
-        <v>0.5853210461791277</v>
+        <v>1.085510780964099</v>
       </c>
       <c r="F4">
-        <v>0.5847120125455174</v>
+        <v>1.078287242720542</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03600675553489324</v>
+        <v>0.1096554176903501</v>
       </c>
       <c r="C5">
-        <v>0.4382764901874337</v>
+        <v>0.6078660076562977</v>
       </c>
       <c r="D5">
-        <v>0.3537032576543248</v>
+        <v>1.177810379744086</v>
       </c>
       <c r="E5">
-        <v>0.5947295668237159</v>
+        <v>1.08526972672423</v>
       </c>
       <c r="F5">
-        <v>0.602565983338879</v>
+        <v>1.092493881120005</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07600721640812284</v>
+        <v>0.1717744169884318</v>
       </c>
       <c r="C6">
-        <v>0.4186182603205892</v>
+        <v>0.6286604205121966</v>
       </c>
       <c r="D6">
-        <v>0.3343428317836482</v>
+        <v>1.216341350767932</v>
       </c>
       <c r="E6">
-        <v>0.5782238595765902</v>
+        <v>1.102878665478634</v>
       </c>
       <c r="F6">
-        <v>0.5820939907362127</v>
+        <v>1.102625091828489</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09996734948318312</v>
+        <v>0.1768538724432516</v>
       </c>
       <c r="C7">
-        <v>0.3946104424313834</v>
+        <v>0.6104058027863382</v>
       </c>
       <c r="D7">
-        <v>0.304156198780297</v>
+        <v>1.140351552268331</v>
       </c>
       <c r="E7">
-        <v>0.5515035800249143</v>
+        <v>1.067872441946289</v>
       </c>
       <c r="F7">
-        <v>0.5510461396922992</v>
+        <v>1.066208758438943</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.058982071561956</v>
+        <v>0.1598281167258759</v>
       </c>
       <c r="C8">
-        <v>0.4225312785458647</v>
+        <v>0.6402851931566111</v>
       </c>
       <c r="D8">
-        <v>0.3413796702787015</v>
+        <v>1.259767004438407</v>
       </c>
       <c r="E8">
-        <v>0.5842770492486433</v>
+        <v>1.122393426761938</v>
       </c>
       <c r="F8">
-        <v>0.59090112965712</v>
+        <v>1.125108303637986</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1107680203475256</v>
+        <v>0.1949165218041688</v>
       </c>
       <c r="C9">
-        <v>0.4177884961770141</v>
+        <v>0.6346525613013413</v>
       </c>
       <c r="D9">
-        <v>0.3290473224825335</v>
+        <v>1.269321839014417</v>
       </c>
       <c r="E9">
-        <v>0.5736264659885678</v>
+        <v>1.126641841498183</v>
       </c>
       <c r="F9">
-        <v>0.572451866506145</v>
+        <v>1.124158704767178</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07549334707445945</v>
+        <v>0.1797154758037312</v>
       </c>
       <c r="C10">
-        <v>0.4371919483332072</v>
+        <v>0.6670396664056156</v>
       </c>
       <c r="D10">
-        <v>0.3654170218579554</v>
+        <v>1.335955379238441</v>
       </c>
       <c r="E10">
-        <v>0.6044973299014277</v>
+        <v>1.155835359918722</v>
       </c>
       <c r="F10">
-        <v>0.6103808973489443</v>
+        <v>1.157104887042038</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1033470187209335</v>
+        <v>0.201330222591291</v>
       </c>
       <c r="C11">
-        <v>0.4328287120564761</v>
+        <v>0.6632936024058411</v>
       </c>
       <c r="D11">
-        <v>0.3505829942180106</v>
+        <v>1.352772756718701</v>
       </c>
       <c r="E11">
-        <v>0.5921004933438332</v>
+        <v>1.163087596322264</v>
       </c>
       <c r="F11">
-        <v>0.5937098325534103</v>
+        <v>1.16133112362294</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1768538724432516</v>
+        <v>0.1920809093455981</v>
       </c>
       <c r="C7">
-        <v>0.6104058027863382</v>
+        <v>0.6594294039653735</v>
       </c>
       <c r="D7">
-        <v>1.140351552268331</v>
+        <v>1.284944221537631</v>
       </c>
       <c r="E7">
-        <v>1.067872441946289</v>
+        <v>1.133553801783414</v>
       </c>
       <c r="F7">
-        <v>1.066208758438943</v>
+        <v>1.133008249231015</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1598281167258759</v>
+        <v>0.1796775225968534</v>
       </c>
       <c r="C8">
-        <v>0.6402851931566111</v>
+        <v>0.6623220035822726</v>
       </c>
       <c r="D8">
-        <v>1.259767004438407</v>
+        <v>1.39608628180706</v>
       </c>
       <c r="E8">
-        <v>1.122393426761938</v>
+        <v>1.18156095137198</v>
       </c>
       <c r="F8">
-        <v>1.125108303637986</v>
+        <v>1.184868811785385</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1949165218041688</v>
+        <v>-0.02192181864440764</v>
       </c>
       <c r="C9">
-        <v>0.6346525613013413</v>
+        <v>0.6050125953328321</v>
       </c>
       <c r="D9">
-        <v>1.269321839014417</v>
+        <v>0.8025268610977779</v>
       </c>
       <c r="E9">
-        <v>1.126641841498183</v>
+        <v>0.8958386356357811</v>
       </c>
       <c r="F9">
-        <v>1.124158704767178</v>
+        <v>0.9188358165951085</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1797154758037312</v>
+        <v>0.2162555955008903</v>
       </c>
       <c r="C10">
-        <v>0.6670396664056156</v>
+        <v>0.5414520406110113</v>
       </c>
       <c r="D10">
-        <v>1.335955379238441</v>
+        <v>0.7908809848366183</v>
       </c>
       <c r="E10">
-        <v>1.155835359918722</v>
+        <v>0.8893148963312255</v>
       </c>
       <c r="F10">
-        <v>1.157104887042038</v>
+        <v>0.8978441090219604</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.201330222591291</v>
+        <v>0.1228779891785326</v>
       </c>
       <c r="C11">
-        <v>0.6632936024058411</v>
+        <v>0.3629836300342202</v>
       </c>
       <c r="D11">
-        <v>1.352772756718701</v>
+        <v>0.2439168504478103</v>
       </c>
       <c r="E11">
-        <v>1.163087596322264</v>
+        <v>0.493879388563453</v>
       </c>
       <c r="F11">
-        <v>1.16133112362294</v>
+        <v>0.5348105391435956</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
